--- a/Figures/Chapter 2 - Fire/pairwise_adonis_20_same_sheet.xlsx
+++ b/Figures/Chapter 2 - Fire/pairwise_adonis_20_same_sheet.xlsx
@@ -484,7 +484,7 @@
         <v>1.3403008754914</v>
       </c>
       <c r="E12" t="n">
-        <v>0.361</v>
+        <v>0.331</v>
       </c>
     </row>
     <row r="13">
@@ -549,7 +549,7 @@
         <v>2.16990647525782</v>
       </c>
       <c r="E18" t="n">
-        <v>0.133</v>
+        <v>0.106</v>
       </c>
     </row>
     <row r="19">
